--- a/run/input.xlsx
+++ b/run/input.xlsx
@@ -1,43 +1,448 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView windowWidth="28000" windowHeight="11860"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>smtp_from_user</t>
+  </si>
+  <si>
+    <t>cisystem@net263.com</t>
+  </si>
+  <si>
+    <t>smtp_to_users</t>
+  </si>
+  <si>
+    <t>yueheng.wu@net263.com,609223770@qq.com</t>
+  </si>
+  <si>
+    <t>smtp_host</t>
+  </si>
+  <si>
+    <t>smtpcom.263xmail.com</t>
+  </si>
+  <si>
+    <t>smtp_port</t>
+  </si>
+  <si>
+    <t>smtp_password</t>
+  </si>
+  <si>
+    <t>KG2fgUb</t>
+  </si>
+  <si>
+    <t>email_prefix_note</t>
+  </si>
+  <si>
+    <t>Hi,everybody:
+iTalkBB AIjia发布新版本了！本次更新内容如下:</t>
+  </si>
+  <si>
+    <t>latest_app_version</t>
+  </si>
+  <si>
+    <t>1.6.0</t>
+  </si>
+  <si>
+    <t>app_id</t>
+  </si>
+  <si>
+    <t>appstore_info_url</t>
+  </si>
+  <si>
+    <t>https://itunes.apple.com/cn/lookup</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,26 +451,330 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -348,142 +1057,106 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>key</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>smtp_from_user</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>wyh609223@163.com</t>
-        </is>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>smtp_to_users</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>yueheng.wu@net263.com,609223770@qq.com</t>
-        </is>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>smtp_host</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>smtp.163.com</t>
-        </is>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>smtp_port</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>25</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>smtp_password</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>LQHWJGTMKIXUVJIL</t>
-        </is>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>email_prefix_note</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hi,everybody:
-iTalkBB AIjia发布新版本了！本次更新内容如下:</t>
-        </is>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>latest_app_version</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1.7.0</t>
-        </is>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>app_id</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
         <v>1261293132</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>appstore_info_url</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://itunes.apple.com/cn/lookup</t>
-        </is>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="cisystem@net263.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="yueheng.wu@net263.com,609223770@qq.com" tooltip="mailto:yueheng.wu@net263.com,609223770@qq.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/run/input.xlsx
+++ b/run/input.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,18 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>smtp_from_user_nickname</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AIjiaRobot</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/run/input.xlsx
+++ b/run/input.xlsx
@@ -1,43 +1,454 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView windowWidth="28000" windowHeight="11860"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>smtp_from_user</t>
+  </si>
+  <si>
+    <t>cisystem@net263.com</t>
+  </si>
+  <si>
+    <t>smtp_to_users</t>
+  </si>
+  <si>
+    <t>yanan.chen@net263.com,lipeng.sun@net263.com,shilong.zhai@net263.com,hao1.li@net263.com, yueheng.wu@net263.com, huanghe.luo@net263.com, zilin.niu@net263.com,KeithXi &lt;xiaofeng.xi@net263.com&gt;,fsha@net263.com,cshen@net263.com,nan.zhang@net263.com,chengkun.liu@net263.com,tiezhou.wei@net263.com,haichao.lu@net263.com,yuanlong.li@net263.com</t>
+  </si>
+  <si>
+    <t>smtp_host</t>
+  </si>
+  <si>
+    <t>smtpcom.263xmail.com</t>
+  </si>
+  <si>
+    <t>smtp_port</t>
+  </si>
+  <si>
+    <t>smtp_password</t>
+  </si>
+  <si>
+    <t>KG2fgUb</t>
+  </si>
+  <si>
+    <t>email_prefix_note</t>
+  </si>
+  <si>
+    <t>Hi,everybody:
+iTalkBB AIjia发布新版本了！本次更新内容如下:</t>
+  </si>
+  <si>
+    <t>latest_app_version</t>
+  </si>
+  <si>
+    <t>1.7.0</t>
+  </si>
+  <si>
+    <t>app_id</t>
+  </si>
+  <si>
+    <t>appstore_info_url</t>
+  </si>
+  <si>
+    <t>https://itunes.apple.com/cn/lookup</t>
+  </si>
+  <si>
+    <t>smtp_from_user_nickname</t>
+  </si>
+  <si>
+    <t>AIjiaRobot</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,26 +457,329 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -348,154 +1062,110 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>key</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>smtp_from_user</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>cisystem@net263.com</t>
-        </is>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>smtp_to_users</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>yueheng.wu@net263.com,609223770@qq.com</t>
-        </is>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>smtp_host</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>smtpcom.263xmail.com</t>
-        </is>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>smtp_port</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>25</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>smtp_password</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>KG2fgUb</t>
-        </is>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>email_prefix_note</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hi,everybody:
-iTalkBB AIjia发布新版本了！本次更新内容如下:</t>
-        </is>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>latest_app_version</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1.7.0</t>
-        </is>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>app_id</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
         <v>1261293132</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>appstore_info_url</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://itunes.apple.com/cn/lookup</t>
-        </is>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>smtp_from_user_nickname</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>AIjiaRobot</t>
-        </is>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/run/input.xlsx
+++ b/run/input.xlsx
@@ -1,43 +1,454 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="28000" windowHeight="11860"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>smtp_from_user</t>
+  </si>
+  <si>
+    <t>cisystem@net263.com</t>
+  </si>
+  <si>
+    <t>smtp_to_users</t>
+  </si>
+  <si>
+    <t>yanan.chen@net263.com,lipeng.sun@net263.com,shilong.zhai@net263.com,hao1.li@net263.com, yueheng.wu@net263.com, huanghe.luo@net263.com, zilin.niu@net263.com,KeithXi &lt;xiaofeng.xi@net263.com&gt;,fsha@net263.com,cshen@net263.com,nan.zhang@net263.com,chengkun.liu@net263.com,tiezhou.wei@net263.com,haichao.lu@net263.com,yuanlong.li@net263.com</t>
+  </si>
+  <si>
+    <t>smtp_host</t>
+  </si>
+  <si>
+    <t>smtpcom.263xmail.com</t>
+  </si>
+  <si>
+    <t>smtp_port</t>
+  </si>
+  <si>
+    <t>smtp_password</t>
+  </si>
+  <si>
+    <t>KG2fgUb</t>
+  </si>
+  <si>
+    <t>email_prefix_note</t>
+  </si>
+  <si>
+    <t>Hi,everybody:
+iTalkBB AIjia iOS 新版本%s已更新至AppStore！本次更新内容如下:</t>
+  </si>
+  <si>
+    <t>latest_app_version</t>
+  </si>
+  <si>
+    <t>1.8.0</t>
+  </si>
+  <si>
+    <t>app_id</t>
+  </si>
+  <si>
+    <t>appstore_info_url</t>
+  </si>
+  <si>
+    <t>https://itunes.apple.com/cn/lookup</t>
+  </si>
+  <si>
+    <t>smtp_from_user_nickname</t>
+  </si>
+  <si>
+    <t>AIjiaRobot</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,26 +457,329 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -348,154 +1062,110 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>key</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>smtp_from_user</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>cisystem@net263.com</t>
-        </is>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>smtp_to_users</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>yueheng.wu@net263.com</t>
-        </is>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>smtp_host</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>smtpcom.263xmail.com</t>
-        </is>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>smtp_port</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>25</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>smtp_password</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>KG2fgUb</t>
-        </is>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>email_prefix_note</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hi,everybody:
-iTalkBB AIjia iOS 新版本%s已更新至AppStore！本次更新内容如下:</t>
-        </is>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>latest_app_version</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1.7.0</t>
-        </is>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>app_id</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
         <v>1261293132</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>appstore_info_url</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://itunes.apple.com/cn/lookup</t>
-        </is>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>smtp_from_user_nickname</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>AIjiaRobot</t>
-        </is>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/run/input.xlsx
+++ b/run/input.xlsx
@@ -60,7 +60,7 @@
     <t>latest_app_version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>app_id</t>
@@ -85,8 +85,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -104,38 +104,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,26 +147,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,8 +178,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -203,14 +211,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -218,37 +218,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,181 +263,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,17 +475,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,6 +496,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -520,11 +520,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,21 +550,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -569,151 +560,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>

--- a/run/input.xlsx
+++ b/run/input.xlsx
@@ -32,7 +32,7 @@
     <t>smtp_to_users</t>
   </si>
   <si>
-    <t>yanan.chen@net263.com,lipeng.sun@net263.com,shilong.zhai@net263.com,hao1.li@net263.com, yueheng.wu@net263.com, huanghe.luo@net263.com, zilin.niu@net263.com,KeithXi &lt;xiaofeng.xi@net263.com&gt;,fsha@net263.com,cshen@net263.com,nan.zhang@net263.com,chengkun.liu@net263.com,tiezhou.wei@net263.com,haichao.lu@net263.com,yuanlong.li@net263.com</t>
+    <t>yueheng.wu@net263.com,KeithXi &lt;xiaofeng.xi@net263.com&gt;,hao1.li@net263.com</t>
   </si>
   <si>
     <t>smtp_host</t>
@@ -84,9 +84,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -104,6 +104,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -117,8 +124,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,68 +216,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -201,32 +240,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,21 +249,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,19 +269,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,151 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,8 +475,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,11 +514,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,186 +569,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>

--- a/run/input.xlsx
+++ b/run/input.xlsx
@@ -1,43 +1,454 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="28000" windowHeight="11860"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>smtp_from_user</t>
+  </si>
+  <si>
+    <t>cisystem@net263.com</t>
+  </si>
+  <si>
+    <t>smtp_to_users</t>
+  </si>
+  <si>
+    <t>yueheng.wu@net263.com,KeithXi &lt;xiaofeng.xi@net263.com&gt;,hao1.li@net263.com</t>
+  </si>
+  <si>
+    <t>smtp_host</t>
+  </si>
+  <si>
+    <t>smtpcom.263xmail.com</t>
+  </si>
+  <si>
+    <t>smtp_port</t>
+  </si>
+  <si>
+    <t>smtp_password</t>
+  </si>
+  <si>
+    <t>KG2fgUb</t>
+  </si>
+  <si>
+    <t>email_prefix_note</t>
+  </si>
+  <si>
+    <t>Hi,everybody:
+iTalkBB AIjia iOS 新版本%s已更新至AppStore！本次更新内容如下:</t>
+  </si>
+  <si>
+    <t>latest_app_version</t>
+  </si>
+  <si>
+    <t>1.7.0</t>
+  </si>
+  <si>
+    <t>app_id</t>
+  </si>
+  <si>
+    <t>appstore_info_url</t>
+  </si>
+  <si>
+    <t>https://itunes.apple.com/cn/lookup</t>
+  </si>
+  <si>
+    <t>smtp_from_user_nickname</t>
+  </si>
+  <si>
+    <t>AIjiaRobot</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,26 +457,329 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -348,154 +1062,110 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>key</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>smtp_from_user</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>cisystem@net263.com</t>
-        </is>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>smtp_to_users</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>yueheng.wu@net263.com,KeithXi &lt;xiaofeng.xi@net263.com&gt;,hao1.li@net263.com</t>
-        </is>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>smtp_host</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>smtpcom.263xmail.com</t>
-        </is>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>smtp_port</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>25</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>smtp_password</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>KG2fgUb</t>
-        </is>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>email_prefix_note</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hi,everybody:
-iTalkBB AIjia iOS 新版本%s已更新至AppStore！本次更新内容如下:</t>
-        </is>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>latest_app_version</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1.8.0</t>
-        </is>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>app_id</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
         <v>1261293132</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>appstore_info_url</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://itunes.apple.com/cn/lookup</t>
-        </is>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>smtp_from_user_nickname</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>AIjiaRobot</t>
-        </is>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/run/input.xlsx
+++ b/run/input.xlsx
@@ -1,43 +1,454 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="28000" windowHeight="11860"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>smtp_from_user</t>
+  </si>
+  <si>
+    <t>cisystem@net263.com</t>
+  </si>
+  <si>
+    <t>smtp_to_users</t>
+  </si>
+  <si>
+    <t>yueheng.wu@net263.com,KeithXi &lt;xiaofeng.xi@net263.com&gt;,hao1.li@net263.com</t>
+  </si>
+  <si>
+    <t>smtp_host</t>
+  </si>
+  <si>
+    <t>smtpcom.263xmail.com</t>
+  </si>
+  <si>
+    <t>smtp_port</t>
+  </si>
+  <si>
+    <t>smtp_password</t>
+  </si>
+  <si>
+    <t>KG2fgUb</t>
+  </si>
+  <si>
+    <t>email_prefix_note</t>
+  </si>
+  <si>
+    <t>Hi,everybody:
+iTalkBB AIjia iOS 新版本%s已更新至AppStore！本次更新内容如下:</t>
+  </si>
+  <si>
+    <t>latest_app_version</t>
+  </si>
+  <si>
+    <t>1.7.0</t>
+  </si>
+  <si>
+    <t>app_id</t>
+  </si>
+  <si>
+    <t>appstore_info_url</t>
+  </si>
+  <si>
+    <t>https://itunes.apple.com/cn/lookup</t>
+  </si>
+  <si>
+    <t>smtp_from_user_nickname</t>
+  </si>
+  <si>
+    <t>AIjiaRobot</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,26 +457,329 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -348,154 +1062,110 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>key</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>smtp_from_user</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>cisystem@net263.com</t>
-        </is>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>smtp_to_users</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>yueheng.wu@net263.com,KeithXi &lt;xiaofeng.xi@net263.com&gt;,hao1.li@net263.com</t>
-        </is>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>smtp_host</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>smtpcom.263xmail.com</t>
-        </is>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>smtp_port</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>25</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>smtp_password</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>KG2fgUb</t>
-        </is>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>email_prefix_note</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hi,everybody:
-iTalkBB AIjia iOS 新版本%s已更新至AppStore！本次更新内容如下:</t>
-        </is>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>latest_app_version</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1.8.0</t>
-        </is>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>app_id</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
         <v>1261293132</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>appstore_info_url</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://itunes.apple.com/cn/lookup</t>
-        </is>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>smtp_from_user_nickname</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>AIjiaRobot</t>
-        </is>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/run/input.xlsx
+++ b/run/input.xlsx
@@ -1,43 +1,454 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView windowWidth="28000" windowHeight="11860"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>smtp_from_user</t>
+  </si>
+  <si>
+    <t>cisystem@net263.com</t>
+  </si>
+  <si>
+    <t>smtp_to_users</t>
+  </si>
+  <si>
+    <t>yueheng.wu@net263.com,KeithXi &lt;xiaofeng.xi@net263.com&gt;,hao1.li@net263.com</t>
+  </si>
+  <si>
+    <t>smtp_host</t>
+  </si>
+  <si>
+    <t>smtpcom.263xmail.com</t>
+  </si>
+  <si>
+    <t>smtp_port</t>
+  </si>
+  <si>
+    <t>smtp_password</t>
+  </si>
+  <si>
+    <t>KG2fgUb</t>
+  </si>
+  <si>
+    <t>email_prefix_note</t>
+  </si>
+  <si>
+    <t>Hi,everybody:
+iTalkBB AIjia iOS 新版本%s已更新至AppStore！本次更新内容如下:</t>
+  </si>
+  <si>
+    <t>latest_app_version</t>
+  </si>
+  <si>
+    <t>1.7.0</t>
+  </si>
+  <si>
+    <t>app_id</t>
+  </si>
+  <si>
+    <t>appstore_info_url</t>
+  </si>
+  <si>
+    <t>https://itunes.apple.com/cn/lookup</t>
+  </si>
+  <si>
+    <t>smtp_from_user_nickname</t>
+  </si>
+  <si>
+    <t>AIjiaRobot</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,26 +457,329 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -348,154 +1062,110 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>key</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>smtp_from_user</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>cisystem@net263.com</t>
-        </is>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>smtp_to_users</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>yueheng.wu@net263.com,KeithXi &lt;xiaofeng.xi@net263.com&gt;,hao1.li@net263.com</t>
-        </is>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>smtp_host</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>smtpcom.263xmail.com</t>
-        </is>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>smtp_port</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>25</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>smtp_password</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>KG2fgUb</t>
-        </is>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>email_prefix_note</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hi,everybody:
-iTalkBB AIjia iOS 新版本%s已更新至AppStore！本次更新内容如下:</t>
-        </is>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>latest_app_version</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1.8.0</t>
-        </is>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>app_id</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
         <v>1261293132</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>appstore_info_url</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://itunes.apple.com/cn/lookup</t>
-        </is>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>smtp_from_user_nickname</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>AIjiaRobot</t>
-        </is>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/run/input.xlsx
+++ b/run/input.xlsx
@@ -1,43 +1,454 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView windowWidth="28000" windowHeight="11860"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>smtp_from_user</t>
+  </si>
+  <si>
+    <t>cisystem@net263.com</t>
+  </si>
+  <si>
+    <t>smtp_to_users</t>
+  </si>
+  <si>
+    <t>yanan.chen@net263.com,lipeng.sun@net263.com,shilong.zhai@net263.com,hao1.li@net263.com, yueheng.wu@net263.com, huanghe.luo@net263.com, zilin.niu@net263.com,KeithXi &lt;xiaofeng.xi@net263.com&gt;,fsha@net263.com,cshen@net263.com,nan.zhang@net263.com,chengkun.liu@net263.com,tiezhou.wei@net263.com,haichao.lu@net263.com,yuanlong.li@net263.com</t>
+  </si>
+  <si>
+    <t>smtp_host</t>
+  </si>
+  <si>
+    <t>smtpcom.263xmail.com</t>
+  </si>
+  <si>
+    <t>smtp_port</t>
+  </si>
+  <si>
+    <t>smtp_password</t>
+  </si>
+  <si>
+    <t>KG2fgUb</t>
+  </si>
+  <si>
+    <t>email_prefix_note</t>
+  </si>
+  <si>
+    <t>Hi,everybody:
+iTalkBB AIjia iOS 新版本%s已更新至AppStore！本次更新内容如下:</t>
+  </si>
+  <si>
+    <t>latest_app_version</t>
+  </si>
+  <si>
+    <t>1.8.0</t>
+  </si>
+  <si>
+    <t>app_id</t>
+  </si>
+  <si>
+    <t>appstore_info_url</t>
+  </si>
+  <si>
+    <t>https://itunes.apple.com/cn/lookup</t>
+  </si>
+  <si>
+    <t>smtp_from_user_nickname</t>
+  </si>
+  <si>
+    <t>AIjiaRobot</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,26 +457,329 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -348,154 +1062,110 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>key</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>smtp_from_user</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>cisystem@net263.com</t>
-        </is>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>smtp_to_users</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>yueheng.wu@net263.com,KeithXi &lt;xiaofeng.xi@net263.com&gt;,hao1.li@net263.com</t>
-        </is>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>smtp_host</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>smtpcom.263xmail.com</t>
-        </is>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>smtp_port</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>25</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>smtp_password</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>KG2fgUb</t>
-        </is>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>email_prefix_note</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hi,everybody:
-iTalkBB AIjia iOS 新版本%s已更新至AppStore！本次更新内容如下:</t>
-        </is>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>latest_app_version</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1.8.0</t>
-        </is>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>app_id</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
         <v>1261293132</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>appstore_info_url</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://itunes.apple.com/cn/lookup</t>
-        </is>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>smtp_from_user_nickname</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>AIjiaRobot</t>
-        </is>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/run/input.xlsx
+++ b/run/input.xlsx
@@ -1,43 +1,454 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="28000" windowHeight="11860"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>smtp_from_user</t>
+  </si>
+  <si>
+    <t>cisystem@net263.com</t>
+  </si>
+  <si>
+    <t>smtp_to_users</t>
+  </si>
+  <si>
+    <t>yanan.chen@net263.com,lipeng.sun@net263.com,shilong.zhai@net263.com,hao1.li@net263.com, yueheng.wu@net263.com, huanghe.luo@net263.com, zilin.niu@net263.com,KeithXi &lt;xiaofeng.xi@net263.com&gt;,fsha@net263.com,cshen@net263.com,nan.zhang@net263.com,chengkun.liu@net263.com,tiezhou.wei@net263.com,haichao.lu@net263.com,yuanlong.li@net263.com</t>
+  </si>
+  <si>
+    <t>smtp_host</t>
+  </si>
+  <si>
+    <t>smtpcom.263xmail.com</t>
+  </si>
+  <si>
+    <t>smtp_port</t>
+  </si>
+  <si>
+    <t>smtp_password</t>
+  </si>
+  <si>
+    <t>KG2fgUb</t>
+  </si>
+  <si>
+    <t>email_prefix_note</t>
+  </si>
+  <si>
+    <t>Hi,everybody:
+iTalkBB AIjia iOS 新版本%s已更新至AppStore！本次更新内容如下:</t>
+  </si>
+  <si>
+    <t>latest_app_version</t>
+  </si>
+  <si>
+    <t>1.8.0</t>
+  </si>
+  <si>
+    <t>app_id</t>
+  </si>
+  <si>
+    <t>appstore_info_url</t>
+  </si>
+  <si>
+    <t>https://itunes.apple.com/cn/lookup</t>
+  </si>
+  <si>
+    <t>smtp_from_user_nickname</t>
+  </si>
+  <si>
+    <t>AIjiaRobot</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,26 +457,329 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -348,154 +1062,110 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>key</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>smtp_from_user</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>cisystem@net263.com</t>
-        </is>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>smtp_to_users</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>xiaofeng.xi@net263.com,yueheng.wu@net263.com,hao1.li@net263.com</t>
-        </is>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>smtp_host</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>smtpcom.263xmail.com</t>
-        </is>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>smtp_port</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>25</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>smtp_password</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>KG2fgUb</t>
-        </is>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>email_prefix_note</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hi,everybody:
-iTalkBB AIjia iOS 新版本%s已更新至AppStore！本次更新内容如下:</t>
-        </is>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>latest_app_version</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1.8.0</t>
-        </is>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>app_id</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
         <v>1261293132</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>appstore_info_url</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://itunes.apple.com/cn/lookup</t>
-        </is>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>smtp_from_user_nickname</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>AIjiaRobot</t>
-        </is>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/run/input.xlsx
+++ b/run/input.xlsx
@@ -85,8 +85,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -112,6 +112,120 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,132 +239,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -263,19 +263,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,37 +377,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,121 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,17 +485,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -546,6 +535,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -572,145 +572,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">

--- a/run/input.xlsx
+++ b/run/input.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -398,7 +398,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>yanan.chen@net263.com,lipeng.sun@net263.com,shilong.zhai@net263.com,hao1.li@net263.com, yueheng.wu@net263.com, huanghe.luo@net263.com, zilin.niu@net263.com,KeithXi &lt;xiaofeng.xi@net263.com&gt;,fsha@net263.com,cshen@net263.com,nan.zhang@net263.com,chengkun.liu@net263.com,tiezhou.wei@net263.com,haichao.lu@net263.com,yuanlong.li@net263.com</t>
+          <t>&lt;吴岳恒&gt;yueheng.wu@net263.com,&lt;李浩&gt;hao1.li@net263.com,&lt;KeithXi&gt;xiaofeng.xi@net263.com</t>
         </is>
       </c>
     </row>
@@ -496,6 +496,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/run/input.xlsx
+++ b/run/input.xlsx
@@ -398,7 +398,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>&lt;吴岳恒&gt;yueheng.wu@net263.com,&lt;李浩&gt;hao1.li@net263.com,&lt;KeithXi&gt;xiaofeng.xi@net263.com</t>
+          <t>吴岳恒&lt;yueheng.wu@net263.com&gt;,李浩&lt;hao1.li@net263.com&gt;,KeithXi&lt;xiaofeng.xi@net263.com&gt;</t>
         </is>
       </c>
     </row>

--- a/run/input.xlsx
+++ b/run/input.xlsx
@@ -398,7 +398,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>吴岳恒&lt;yueheng.wu@net263.com&gt;,李浩&lt;hao1.li@net263.com&gt;,KeithXi&lt;xiaofeng.xi@net263.com&gt;</t>
+          <t>吴岳恒 &lt;yueheng.wu@net263.com&gt;,李浩 &lt;hao1.li@net263.com&gt;,KeithXi &lt;xiaofeng.xi@net263.com&gt;</t>
         </is>
       </c>
     </row>

--- a/run/input.xlsx
+++ b/run/input.xlsx
@@ -398,7 +398,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>吴岳恒 &lt;yueheng.wu@net263.com&gt;,李浩 &lt;hao1.li@net263.com&gt;,KeithXi &lt;xiaofeng.xi@net263.com&gt;</t>
+          <t>"吴岳恒" &lt;yueheng.wu@net263.com&gt;, "吴岳恒_copy" &lt;609223770@qq.com&gt;</t>
         </is>
       </c>
     </row>

--- a/run/input.xlsx
+++ b/run/input.xlsx
@@ -398,7 +398,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>"吴岳恒" &lt;yueheng.wu@net263.com&gt;, "吴岳恒_copy" &lt;609223770@qq.com&gt;</t>
+          <t>吴岳恒 &lt;yueheng.wu@net263.com&gt;, 吴岳恒_copy &lt;609223770@qq.com&gt;</t>
         </is>
       </c>
     </row>

--- a/run/input.xlsx
+++ b/run/input.xlsx
@@ -398,7 +398,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>吴岳恒 &lt;yueheng.wu@net263.com&gt;, 吴岳恒_copy &lt;609223770@qq.com&gt;</t>
+          <t>"吴岳恒"&lt;yueheng.wu@net263.com&gt;,"吴岳恒_copy"&lt;609223770@qq.com&gt;</t>
         </is>
       </c>
     </row>

--- a/run/input.xlsx
+++ b/run/input.xlsx
@@ -398,7 +398,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>"吴岳恒"&lt;yueheng.wu@net263.com&gt;,"吴岳恒_copy"&lt;609223770@qq.com&gt;</t>
+          <t>"吴岳恒","吴岳恒_copy"</t>
         </is>
       </c>
     </row>

--- a/run/input.xlsx
+++ b/run/input.xlsx
@@ -398,7 +398,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>"吴岳恒","吴岳恒_copy"</t>
+          <t>yueheng.wu@net263.com,609223770@qq.com</t>
         </is>
       </c>
     </row>

--- a/run/input.xlsx
+++ b/run/input.xlsx
@@ -1,43 +1,454 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="28000" windowHeight="11860"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>smtp_from_user</t>
+  </si>
+  <si>
+    <t>cisystem@net263.com</t>
+  </si>
+  <si>
+    <t>smtp_to_users</t>
+  </si>
+  <si>
+    <t>cshen@net263.com,yanan.chen@net263.com,lipeng.sun@net263.com,shilong.zhai@net263.com,hao1.li@net263.com,yueheng.wu@net263.com,huanghe.luo@net263.com,zilin.niu@net263.com,xiaofeng.xi@net263.com,fsha@net263.com,nan.zhang@net263.com,chengkun.liu@net263.com,tiezhou.wei@net263.com,haichao.lu@net263.com,yuanlong.li@net263.com</t>
+  </si>
+  <si>
+    <t>smtp_host</t>
+  </si>
+  <si>
+    <t>smtpcom.263xmail.com</t>
+  </si>
+  <si>
+    <t>smtp_port</t>
+  </si>
+  <si>
+    <t>smtp_password</t>
+  </si>
+  <si>
+    <t>KG2fgUb</t>
+  </si>
+  <si>
+    <t>email_prefix_note</t>
+  </si>
+  <si>
+    <t>Hi,everybody:
+iTalkBB AIjia iOS 新版本%s已更新至AppStore！本次更新内容如下:</t>
+  </si>
+  <si>
+    <t>latest_app_version</t>
+  </si>
+  <si>
+    <t>1.8.1</t>
+  </si>
+  <si>
+    <t>app_id</t>
+  </si>
+  <si>
+    <t>appstore_info_url</t>
+  </si>
+  <si>
+    <t>https://itunes.apple.com/cn/lookup</t>
+  </si>
+  <si>
+    <t>smtp_from_user_nickname</t>
+  </si>
+  <si>
+    <t>AIjiaRobot</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,26 +457,331 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -348,154 +1064,114 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>key</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>smtp_from_user</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>cisystem@net263.com</t>
-        </is>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>smtp_to_users</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>yueheng.wu@net263.com,609223770@qq.com</t>
-        </is>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>smtp_host</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>smtpcom.263xmail.com</t>
-        </is>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>smtp_port</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>25</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>smtp_password</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>KG2fgUb</t>
-        </is>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>email_prefix_note</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hi,everybody:
-iTalkBB AIjia iOS 新版本%s已更新至AppStore！本次更新内容如下:</t>
-        </is>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>latest_app_version</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1.8.1</t>
-        </is>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>app_id</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
         <v>1261293132</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>appstore_info_url</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://itunes.apple.com/cn/lookup</t>
-        </is>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>smtp_from_user_nickname</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>AIjiaRobot</t>
-        </is>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="cshen@net263.com,yanan.chen@net263.com,lipeng.sun@net263.com,shilong.zhai@net263.com,hao1.li@net263.com,yueheng.wu@net263.com,huanghe.luo@net263.com,zilin.niu@net263.com,xiaofeng.xi@net263.com,fsha@net263.com,nan.zhang@net263.com,chengkun.liu@net263.com,tiezhou.wei@net263.com,haichao.lu@net263.com,yuanlong.li@net263.com" tooltip="mailto:cshen@net263.com,yanan.chen@net263.com,lipeng.sun@net263.com,shilong.zhai@net263.com,hao1.li@net263.com,yueheng.wu@net263.com,huanghe.luo@net263.com,zilin.niu@net263.com,xiaofeng.xi@net263.com,fsha@net263.com,nan.zhang@net263.com,chengkun.liu@net26"/>
+    <hyperlink ref="B2" r:id="rId2" display="cisystem@net263.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/run/input.xlsx
+++ b/run/input.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.8.2</t>
+          <t>1.9.0</t>
         </is>
       </c>
     </row>

--- a/run/input.xlsx
+++ b/run/input.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.9.0</t>
+          <t>1.9.1</t>
         </is>
       </c>
     </row>
